--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
   <si>
     <t xml:space="preserve">the apple is on the box</t>
   </si>
@@ -65,55 +65,103 @@
     <t xml:space="preserve">this is a bakery</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es una panadería</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a hospital</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es un hospital</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is an airport</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es un aeropuerto</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a school</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es una escuela</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a pharmacy</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es una farmacia</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a bank</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es un banco</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a bookstore</t>
   </si>
   <si>
+    <t xml:space="preserve">esto es una libreria</t>
+  </si>
+  <si>
     <t xml:space="preserve">this is a train station</t>
   </si>
   <si>
+    <t xml:space="preserve">esta es una estacion de tren</t>
+  </si>
+  <si>
     <t xml:space="preserve">she is a doctor</t>
   </si>
   <si>
+    <t xml:space="preserve">ella es una doctora</t>
+  </si>
+  <si>
     <t xml:space="preserve">she is happy</t>
   </si>
   <si>
+    <t xml:space="preserve">ella es feliz</t>
+  </si>
+  <si>
     <t xml:space="preserve">she is a teacher</t>
   </si>
   <si>
+    <t xml:space="preserve">ella es una maestra</t>
+  </si>
+  <si>
     <t xml:space="preserve">she is angry</t>
   </si>
   <si>
+    <t xml:space="preserve">Ella está enojada</t>
+  </si>
+  <si>
     <t xml:space="preserve">they are policemen</t>
   </si>
   <si>
+    <t xml:space="preserve">ellos son policias</t>
+  </si>
+  <si>
     <t xml:space="preserve">they are funny</t>
   </si>
   <si>
+    <t xml:space="preserve">ellos son graciosos</t>
+  </si>
+  <si>
     <t xml:space="preserve">he is an actor</t>
   </si>
   <si>
+    <t xml:space="preserve">él es un actor</t>
+  </si>
+  <si>
     <t xml:space="preserve">he is serious</t>
   </si>
   <si>
+    <t xml:space="preserve">el es serio</t>
+  </si>
+  <si>
     <t xml:space="preserve">he is a student</t>
   </si>
   <si>
-    <t xml:space="preserve">ella es una doctora</t>
+    <t xml:space="preserve">él es estudiante</t>
   </si>
   <si>
     <t xml:space="preserve">he is a teacher</t>
@@ -817,7 +865,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
   </cols>
@@ -884,7 +932,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -892,122 +940,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1080,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1040,42 +1088,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1148,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1108,122 +1156,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1296,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1256,50 +1304,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1324,126 +1372,126 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1468,126 +1516,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1608,11 +1656,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1752,11 +1800,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1894,13 +1942,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -1909,40 +1957,64 @@
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1961,60 +2033,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2039,14 +2138,14 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>25</v>
@@ -2054,34 +2153,34 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2205,7 @@
       <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2115,50 +2214,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R2" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R5" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2282,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2191,34 +2290,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2342,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2251,58 +2350,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2327,7 +2426,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2335,90 +2434,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2443,102 +2542,102 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -284,61 +284,61 @@
     <t xml:space="preserve">domingo</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 8 am</t>
+    <t xml:space="preserve">It's 8 am</t>
   </si>
   <si>
     <t xml:space="preserve">son las 8 a.m.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 8 o’clock in the morning</t>
+    <t xml:space="preserve">It's 8 o'clock in the morning</t>
   </si>
   <si>
     <t xml:space="preserve">son las 8 de la mañana</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 9:14 pm</t>
+    <t xml:space="preserve">It's 9:14 pm</t>
   </si>
   <si>
     <t xml:space="preserve">son las 21:14</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 9:14 at night</t>
+    <t xml:space="preserve">It's 9:14 at night</t>
   </si>
   <si>
     <t xml:space="preserve">son las 9:14 de la noche</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 7:30 pm</t>
+    <t xml:space="preserve">It's 7:30 pm</t>
   </si>
   <si>
     <t xml:space="preserve">son las 7:30 p. m.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 7:30 at night</t>
+    <t xml:space="preserve">It's 7:30 at night</t>
   </si>
   <si>
     <t xml:space="preserve">son las 7:30 de la noche</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 4:30 am</t>
+    <t xml:space="preserve">It's 4:30 am</t>
   </si>
   <si>
     <t xml:space="preserve">son las 4:30 am</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 4:30 in the morning</t>
+    <t xml:space="preserve">It's 4:30 in the morning</t>
   </si>
   <si>
     <t xml:space="preserve">son las 4:30 de la mañana</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 3:12 pm</t>
+    <t xml:space="preserve">It's 3:12 pm</t>
   </si>
   <si>
     <t xml:space="preserve">son las 15:12</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s 3:12 in the arternoon</t>
+    <t xml:space="preserve">It's 3:12 in the arternoon</t>
   </si>
   <si>
     <t xml:space="preserve">son las 3:12 de la tarde</t>
@@ -865,7 +865,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
   </cols>
@@ -932,7 +932,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1080,7 +1080,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1148,7 +1148,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1296,7 +1296,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1372,7 +1372,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1516,7 +1516,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1660,7 +1660,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1800,11 +1800,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1948,7 +1948,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2039,7 +2039,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2138,7 +2138,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2205,7 +2205,7 @@
       <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2282,7 +2282,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2342,7 +2342,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2422,11 +2422,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2542,7 +2542,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="240">
   <si>
     <t xml:space="preserve">the apple is on the box</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">in the evening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por la tarde</t>
   </si>
   <si>
     <t xml:space="preserve">Monday</t>
@@ -865,7 +862,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
   </cols>
@@ -932,7 +929,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -940,122 +937,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1077,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1088,42 +1085,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1145,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1156,122 +1153,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1293,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1304,50 +1301,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1372,126 +1369,126 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1516,126 +1513,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1657,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1804,7 +1801,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1948,7 +1945,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2039,7 +2036,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2138,7 +2135,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2205,7 +2202,7 @@
       <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2278,11 +2275,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2317,7 +2314,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2339,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2350,58 +2347,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2422,11 +2419,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2434,90 +2431,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2542,102 +2539,102 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,30 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="248">
   <si>
     <t xml:space="preserve">the apple is on the box</t>
   </si>
   <si>
+    <t xml:space="preserve">la manzana está en la caja</t>
+  </si>
+  <si>
     <t xml:space="preserve">the apple is between the two boxes</t>
   </si>
   <si>
+    <t xml:space="preserve">la manzana está entre las dos cajas</t>
+  </si>
+  <si>
     <t xml:space="preserve">the apple is behind the box</t>
   </si>
   <si>
+    <t xml:space="preserve">la manzana está detrás de la caja</t>
+  </si>
+  <si>
     <t xml:space="preserve">the apple is in front of the box</t>
   </si>
   <si>
+    <t xml:space="preserve">la manzana está delante de la caja</t>
+  </si>
+  <si>
     <t xml:space="preserve">the apple is next to the book</t>
   </si>
   <si>
+    <t xml:space="preserve">la manzana está al lado del libro</t>
+  </si>
+  <si>
     <t xml:space="preserve">the school is next to the restaurant</t>
   </si>
   <si>
+    <t xml:space="preserve">la escuela está al lado del restaurante</t>
+  </si>
+  <si>
     <t xml:space="preserve">the police station is between the bank and the store</t>
   </si>
   <si>
+    <t xml:space="preserve">la comisaría está entre el banco y la tienda</t>
+  </si>
+  <si>
     <t xml:space="preserve">the drug store is in front of the police station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la farmacia esta enfrente de la comisaria</t>
   </si>
   <si>
     <t xml:space="preserve">this is a bakery</t>
@@ -856,55 +880,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +978,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -937,122 +986,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1126,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1085,42 +1134,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1194,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1153,122 +1202,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1342,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1301,50 +1350,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1369,126 +1418,126 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1513,126 +1562,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1706,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1801,7 +1850,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1945,73 +1994,73 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2036,81 +2085,81 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2135,49 +2184,49 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2196,13 +2245,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="R1:S6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2210,51 +2259,51 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>51</v>
+      <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>53</v>
+      <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>55</v>
+      <c r="A3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>57</v>
+      <c r="A4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>59</v>
+      <c r="A5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>61</v>
+      <c r="A6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2275,11 +2324,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2287,34 +2336,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2388,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2347,58 +2396,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2472,7 @@
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2431,90 +2480,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2539,102 +2588,102 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">son las 15:12</t>
   </si>
   <si>
-    <t xml:space="preserve">It's 3:12 in the arternoon</t>
+    <t xml:space="preserve">It's 3:12 in the afternoon</t>
   </si>
   <si>
     <t xml:space="preserve">son las 3:12 de la tarde</t>
@@ -886,10 +886,10 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +978,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1126,7 +1126,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1194,7 +1194,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1342,7 +1342,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1418,7 +1418,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1562,7 +1562,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1706,7 +1706,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1850,7 +1850,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1994,7 +1994,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2085,7 +2085,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2184,7 +2184,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2247,11 +2247,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2328,7 +2328,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2388,7 +2388,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2468,11 +2468,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2588,7 +2588,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">me gusta bailar</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t like to exercise</t>
+    <t xml:space="preserve">I don't like to exercise</t>
   </si>
   <si>
     <t xml:space="preserve">no me gusta hacer ejercicio</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">me gusta jugar al fútbol</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t like to play tennis</t>
+    <t xml:space="preserve">I don't like to play tennis</t>
   </si>
   <si>
     <t xml:space="preserve">no me gusta jugar al tenis</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">me gusta comer pasta</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t like to eat fish</t>
+    <t xml:space="preserve">I don't like to eat fish</t>
   </si>
   <si>
     <t xml:space="preserve">no me gusta comer pescado</t>
@@ -886,7 +886,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
@@ -978,7 +978,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1126,7 +1126,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1194,7 +1194,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1338,11 +1338,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1418,7 +1418,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1562,7 +1562,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1706,7 +1706,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1850,7 +1850,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1994,7 +1994,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2085,7 +2085,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2184,7 +2184,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2251,7 +2251,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2328,7 +2328,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2388,7 +2388,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2468,11 +2468,11 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2588,7 +2588,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -786,8 +786,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -854,13 +855,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -886,7 +891,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
@@ -978,7 +983,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1126,7 +1131,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
@@ -1194,7 +1199,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1338,11 +1343,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
@@ -1418,7 +1423,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1562,7 +1567,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1702,129 +1707,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>1000000</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -1850,7 +1855,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -1994,7 +1999,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2085,7 +2090,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2184,7 +2189,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2251,7 +2256,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2328,7 +2333,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2388,7 +2393,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2472,7 +2477,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2588,7 +2593,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,13 +18,6 @@
     <sheet name="what time is it" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="alphabet2" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="alphabet" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Adverbs of frequency2" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Adverbs of frequency" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Likes and Dislikes" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="numbers in letters2" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="numbers in letters" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="numbers2" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="numbers" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t xml:space="preserve">the apple is on the box</t>
   </si>
@@ -447,348 +440,14 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sometimes I drink tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a veces bebo té</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I occasionally eat cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de vez en cuando como pastel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I seldom drink wine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rara vez bebo vino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I rarely do yoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rara vez hago yoga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I never play volleyball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunca juego voleibol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rarely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casi nunca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seldom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raramente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occasionally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de vez en cuando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sometimes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">algunas veces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">often</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a menudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frecuentemente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por lo general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">always</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siempre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I never drink coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nunca tomo café</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sometimes I go to the beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a veces voy a la playa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I always go to the park on sundays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yo siempre voy al parque los domingos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I usually go to a restaurant on fridays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suelo ir a un restaurante los viernes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I frequently play with my dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suelo jugar con mi perro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I often shop online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A menudo compro en línea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me gusta bailar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't like to exercise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no me gusta hacer ejercicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to play soccer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me gusta jugar al fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't like to play tennis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no me gusta jugar al tenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to eat pasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me gusta comer pasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't like to eat fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no me gusta comer pescado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sixteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dieciséis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seventeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diecisiete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eighteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieciocho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ninteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diecinueve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treinta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuarenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cincuenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sixty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seventy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eighty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ochenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ninty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noventa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hundred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ciento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thousand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">millón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuatro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">five</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nueve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eleven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">once</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twelve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quince</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -855,16 +514,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -891,7 +542,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
@@ -979,11 +630,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -1113,874 +764,6 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.34"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1999,7 +782,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -2090,7 +873,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -2189,7 +972,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -2256,7 +1039,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -2333,7 +1116,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2393,7 +1176,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -2477,7 +1260,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -2593,7 +1376,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Beginner Platzi.xlsx
+++ b/src/main/resources/excel/Beginner Platzi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prepositions of place" sheetId="1" state="visible" r:id="rId2"/>
@@ -229,13 +229,13 @@
     <t xml:space="preserve">Por la noche</t>
   </si>
   <si>
-    <t xml:space="preserve">I go to the park on saturday at ten in the morning</t>
+    <t xml:space="preserve">I go to the park on saturday at 10 in the morning</t>
   </si>
   <si>
     <t xml:space="preserve">voy al parque el sabado a las diez de la mañana</t>
   </si>
   <si>
-    <t xml:space="preserve">I go to school on monday at nine in the morning</t>
+    <t xml:space="preserve">I go to school on monday at 9 in the morning</t>
   </si>
   <si>
     <t xml:space="preserve">voy a la escuela el lunes a las nueve de la mañana</t>
@@ -542,7 +542,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
@@ -630,11 +630,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -782,7 +782,7 @@
       <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.76"/>
   </cols>
@@ -873,7 +873,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
@@ -972,7 +972,7 @@
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.09"/>
   </cols>
@@ -1035,11 +1035,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="48.88"/>
@@ -1116,7 +1116,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -1176,7 +1176,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.24"/>
@@ -1260,7 +1260,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -1376,7 +1376,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
